--- a/journals_similar.xlsx
+++ b/journals_similar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,432 +441,648 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>COMPUTER NETWORKS (1999)</t>
+          <t>ACM TRANSACTIONS ON GRAPHICS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Computer Networks (1999)</t>
+          <t>ACM Transactions on Graphics</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IEEE COMMUNICATIONS MAGAZINE (PRINT)</t>
+          <t>ANNALS OF OPERATION RESEARCH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IEEE Communications Magazine (Print)</t>
+          <t>RAIRO-OPERATIONS RESEARCH</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>IEEE COMMUNICATIONS SURVEYS AND TUTORIALS</t>
+          <t>COMPUTER NETWORKS (1999)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IEEE Communications Surveys and Tutorials</t>
+          <t>Computer Networks (1999)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>IEEE NETWORK</t>
+          <t>IEEE COMMUNICATIONS MAGAZINE (PRINT)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IEEE Network</t>
+          <t>IEEE Communications Magazine (Print)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IEEE TRANSACTIONS ON COMMUNICATIONS (PRINT)</t>
+          <t>IEEE COMMUNICATIONS SURVEYS AND TUTORIALS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Cognitive Communications and Networking</t>
+          <t>IEEE Communications Surveys and Tutorials</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>IEEE WIRELESS COMMUNICATIONS</t>
+          <t>IEEE NETWORK</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IEEE Wireless Communications</t>
+          <t>IEEE Network</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>IEEE/ACM TRANSACTIONS ON NETWORKING (PRINT)</t>
+          <t>IEEE TRANSACTIONS ON COMMUNICATIONS (PRINT)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IEEE/ACM Transactions on Networking</t>
+          <t>IEEE Transactions on Cognitive Communications and Networking</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>SIGMOD RECORD</t>
+          <t>IEEE TRANSACTIONS ON NUCLEAR SCIENCE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIGMOD Record</t>
+          <t>IEEE Transactions on Nanobioscience</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>OPTIMIZATION LETTERS (PRINT)</t>
+          <t>IEEE WIRELESS COMMUNICATIONS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Optimization Letters (Print)</t>
+          <t>IEEE Wireless Communications</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>PERFORMANCE EVALUATION</t>
+          <t>IEEE/ACM TRANSACTIONS ON NETWORKING (PRINT)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Performance Evaluation</t>
+          <t>IEEE/ACM Transactions on Networking</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>SCIENCE OF COMPUTER PROGRAMMING (PRINT)</t>
+          <t>INTEGRATED COMPUTER-AIDED ENGINEERING</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCIENCE OF COMPUTER PROGRAMMING</t>
+          <t>Integrated Computer-Aided Engineering</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ANNALES DES TELECOMMUNICATIONS</t>
+          <t>SENSORS (BASEL)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Annals of Telecommunications</t>
+          <t>SENSORS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AUTOMATED SOFTWARE ENGINEERING</t>
+          <t>SIGMOD RECORD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Automated Software Engineering</t>
+          <t>SIGMOD Record</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>COMPUTERS IN ENTERTAINMENT (CIE)</t>
+          <t>JOURNAL OF PARALLEL AND DISTRIBUTED COMPUTING (PRINT)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Computers in Entertainment : CIE</t>
+          <t>Journal of Parallel and Distributed Computing (Print)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>EARTH SCIENCE INFORMATICS (PRINT)</t>
+          <t>OPTIMIZATION LETTERS (PRINT)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Earth Science Informatics</t>
+          <t>Optimization Letters (Print)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF BUSINESS PROCESS INTEGRATION AND MANAGEMENT (PRINT)</t>
+          <t>PARALLEL COMPUTING</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>International Journal of Business Process Integration and Management (Print)</t>
+          <t>Parallel Computing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF DISTRIBUTED SENSOR NETWORKS</t>
+          <t>PERFORMANCE EVALUATION</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>International Journal of Distributed Sensor Networks</t>
+          <t>Performance Evaluation</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF SOFTWARE ENGINEERING AND KNOWLEDGE ENGINEERING</t>
+          <t>SCIENCE OF COMPUTER PROGRAMMING (PRINT)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>International Journal of Software Engineering and Knowledge Engineering</t>
+          <t>SCIENCE OF COMPUTER PROGRAMMING</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>JOURNAL OF INTERNET SERVICES AND APPLICATIONS</t>
+          <t>ANNALES DES TELECOMMUNICATIONS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Journal of Internet Services and Applications</t>
+          <t>Annals of Telecommunications</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>JOURNAL OF UNIVERSAL COMPUTER SCIENCE (PRINT)</t>
+          <t>AUTOMATED SOFTWARE ENGINEERING</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Journal of Universal Computer Science (Print)</t>
+          <t>Automated Software Engineering</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>SOFTWARE QUALITY JOURNAL</t>
+          <t>COMPUTERS IN ENTERTAINMENT (CIE)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ProQuality (UFLA)</t>
+          <t>Computers in Entertainment : CIE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>APPLICABLE ANALYSIS AND DISCRETE MATHEMATICS</t>
+          <t>EARTH SCIENCE INFORMATICS (PRINT)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Electronic Notes in Discrete Mathematics</t>
+          <t>Earth Science Informatics</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IEEE PHOTONICS JOURNAL</t>
+          <t>INTERNATIONAL JOURNAL OF BUSINESS PROCESS INTEGRATION AND MANAGEMENT (PRINT)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IEEE Potentials</t>
+          <t>International Journal of Business Process Integration and Management (Print)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>REVISTA DE INFORMÁTICA TEÓRICA E APLICADA (IMPRESSO)</t>
+          <t>INTERNATIONAL JOURNAL OF COMMUNICATION SYSTEMS (PRINT)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Revista de Informática Teórica e Aplicada (Impresso)</t>
+          <t>International Journal of Computational Fluid Dynamics (Print)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>COMUNICAR (HUELVA)</t>
+          <t>INTERNATIONAL JOURNAL OF DISTRIBUTED SENSOR NETWORKS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INFOCOMP (UFLA)</t>
+          <t>International Journal of Distributed Sensor Networks</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AÇÃO ERGONÔMICA</t>
+          <t>INTERNATIONAL JOURNAL OF SOFTWARE ENGINEERING AND KNOWLEDGE ENGINEERING</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Espaço Energia</t>
+          <t>International Journal of Software Engineering and Knowledge Engineering</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CLEI ELECTRONIC JOURNAL</t>
+          <t>JOURNAL OF COMPUTATIONAL SCIENCE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLEI Electronic Journal</t>
+          <t>Journal of Computational Science</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>JOURNAL OF COMMUNICATION AND INFORMATION SYSTEMS (ONLINE)</t>
+          <t>JOURNAL OF INTERNET SERVICES AND APPLICATIONS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Journal of Communication and Information Systems (Online)</t>
+          <t>Journal of Internet Services and Applications</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>JOURNAL OF COMPUTACIONAL INTERDISCIPLINARY SCIENCES</t>
+          <t>JOURNAL OF UNIVERSAL COMPUTER SCIENCE (PRINT)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Journal of Computational Interdisciplinary Sciences</t>
+          <t>Journal of Universal Computer Science (Print)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RESI. REVISTA ELETRÔNICA DE SISTEMAS DE INFORMAÇÃO</t>
+          <t>NATURAL COMPUTING</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RESI. Revista Eletrônica de Sistemas de Informação</t>
+          <t>Astronomy and Computing</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>REVISTA BRASILEIRA DE REDES DE COMPUTADORES E SISTEMAS DISTRIBUÍDOS</t>
+          <t>SOFTWARE QUALITY JOURNAL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Revista Brasileira de Redes de Computadores e Sistemas Distribuídos</t>
+          <t>ProQuality (UFLA)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AACE INTERNATIONAL TRANSACTIONS</t>
+          <t>INTERNATIONAL JOURNAL OF INNOVATIVE COMPUTING AND APPLICATIONS (ONLINE)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IEEE Latin America Transactions</t>
+          <t>International Journal of Innovative Computing and Applications (Online)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>EM DEBATE (BELO HORIZONTE)</t>
+          <t>APPLICABLE ANALYSIS AND DISCRETE MATHEMATICS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fonte (Belo Horizonte)</t>
+          <t>Electronic Notes in Discrete Mathematics</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF SCIENTIFIC RESEARCH AND REVIEWS</t>
+          <t>IEEE PHOTONICS JOURNAL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>International Journal of Open Source Software and Processes</t>
+          <t>IEEE Potentials</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>REVISTA ELETRÔNICA DE INICIAÇÃO CIENTÍFICA</t>
+          <t>JOURNAL OF MATHEMATICAL ANALYSIS AND APPLICATIONS (PRINT)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>REIC. Revista Eletrônica de Iniciação Científica</t>
+          <t>JOURNAL OF MATHEMATICAL MODELLING AND ALGORITHMS (PRINT)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
+          <t>REVISTA DE INFORMÁTICA TEÓRICA E APLICADA (IMPRESSO)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Revista de Informática Teórica e Aplicada (Impresso)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>COMUNICAR (HUELVA)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>INFOCOMP (UFLA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>AÇÃO ERGONÔMICA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Espaço Energia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>CLEI ELECTRONIC JOURNAL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CLEI Electronic Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>JOURNAL OF COMMUNICATION AND INFORMATION SYSTEMS (ONLINE)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Journal of Communication and Information Systems (Online)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>JOURNAL OF COMPUTACIONAL INTERDISCIPLINARY SCIENCES</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Journal of Computational Interdisciplinary Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RESI. REVISTA ELETRÔNICA DE SISTEMAS DE INFORMAÇÃO</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RESI. Revista Eletrônica de Sistemas de Informação</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>REVISTA BRASILEIRA DE REDES DE COMPUTADORES E SISTEMAS DISTRIBUÍDOS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Revista Brasileira de Redes de Computadores e Sistemas Distribuídos</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>SOCIAL NETWORK ANALYSIS AND MINING</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Statistical Analysis and Data Mining (Online)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>AACE INTERNATIONAL TRANSACTIONS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>IEEE Latin America Transactions</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>EM DEBATE (BELO HORIZONTE)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Fonte (Belo Horizonte)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF NETWORKS AND COMMUNICATIONS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Cluster Computing-The Journal of Networks Software Tools and Applications</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF SCIENTIFIC RESEARCH AND REVIEWS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>International Journal of Open Source Software and Processes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>LECTURE NOTES IN COMPUTER SCIENCE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Computer Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>PROCEDIA COMPUTER SCIENCE</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Procedia Computer Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>REVISTA ELETRÔNICA DE INICIAÇÃO CIENTÍFICA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>REIC. Revista Eletrônica de Iniciação Científica</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
           <t>REVISTA TECNOLOGIAS NA EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Revista Tecnologia da Informação</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>S &amp; G. SISTEMAS &amp; GESTÃO</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>S &amp; G. Sistemas &amp; Gestão</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>TECNOLOGIA EDUCACIONAL</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tecnologia Educacional</t>
         </is>
       </c>
     </row>
